--- a/src/rules_filtersv1_order.xlsx
+++ b/src/rules_filtersv1_order.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HyperSQL</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -517,34 +517,34 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.06923076923076923</v>
+        <v>0.09913793103448276</v>
       </c>
       <c r="D2" t="n">
-        <v>13.63846153846154</v>
+        <v>23.19827586206897</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1205128205128205</v>
+        <v>0.2327586206896552</v>
       </c>
       <c r="F2" t="n">
-        <v>23.74102564102564</v>
+        <v>54.46551724137932</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04615384615384616</v>
+        <v>0.09051724137931035</v>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="J2" t="n">
-        <v>5.531914893617021</v>
+        <v>3.922705314009662</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03781065088757397</v>
+        <v>0.06744203329369798</v>
       </c>
       <c r="L2" t="n">
-        <v>2.638461538461538</v>
+        <v>8.823275862068961</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -556,43 +556,43 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HyperSQL</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>IBM DB2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.06923076923076923</v>
+        <v>0.09913793103448276</v>
       </c>
       <c r="D3" t="n">
-        <v>13.63846153846154</v>
+        <v>23.19827586206897</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.04310344827586207</v>
       </c>
       <c r="F3" t="n">
-        <v>7.576923076923076</v>
+        <v>10.08620689655172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02307692307692308</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="J3" t="n">
-        <v>8.666666666666666</v>
+        <v>8.069565217391304</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02041420118343195</v>
+        <v>0.03020957193816885</v>
       </c>
       <c r="L3" t="n">
-        <v>1.442307692307692</v>
+        <v>1.467241379310345</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
@@ -604,43 +604,43 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HyperSQL</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PostgreSQL</t>
+          <t>MS Access</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.06923076923076923</v>
+        <v>0.09913793103448276</v>
       </c>
       <c r="D4" t="n">
-        <v>13.63846153846154</v>
+        <v>23.19827586206897</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04615384615384616</v>
+        <v>0.03017241379310345</v>
       </c>
       <c r="F4" t="n">
-        <v>9.092307692307694</v>
+        <v>7.060344827586207</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02307692307692308</v>
+        <v>0.02155172413793104</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="J4" t="n">
-        <v>7.222222222222221</v>
+        <v>7.204968944099378</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01988165680473373</v>
+        <v>0.01856049346016647</v>
       </c>
       <c r="L4" t="n">
-        <v>1.430769230769231</v>
+        <v>1.239224137931034</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
@@ -652,43 +652,43 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MySQL</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>MS SQL Server</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1205128205128205</v>
+        <v>0.09913793103448276</v>
       </c>
       <c r="D5" t="n">
-        <v>23.74102564102564</v>
+        <v>23.19827586206897</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.03879310344827586</v>
       </c>
       <c r="F5" t="n">
-        <v>7.576923076923076</v>
+        <v>9.077586206896552</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2553191489361702</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="J5" t="n">
-        <v>6.638297872340426</v>
+        <v>8.966183574879226</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02613412228796844</v>
+        <v>0.03063689060642093</v>
       </c>
       <c r="L5" t="n">
-        <v>1.291208791208791</v>
+        <v>1.473850574712644</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -700,43 +700,43 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MySQL</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PostgreSQL</t>
+          <t>Informix</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1205128205128205</v>
+        <v>0.09913793103448276</v>
       </c>
       <c r="D6" t="n">
-        <v>23.74102564102564</v>
+        <v>23.19827586206897</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04615384615384616</v>
+        <v>0.02155172413793104</v>
       </c>
       <c r="F6" t="n">
-        <v>9.092307692307694</v>
+        <v>5.043103448275863</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04102564102564103</v>
+        <v>0.02155172413793104</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3404255319148936</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="J6" t="n">
-        <v>7.375886524822694</v>
+        <v>10.08695652173913</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03546351084812623</v>
+        <v>0.01941513079667063</v>
       </c>
       <c r="L6" t="n">
-        <v>1.446153846153846</v>
+        <v>1.250239463601533</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -748,43 +748,43 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>HyperSQL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HyperSQL</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="D7" t="n">
-        <v>13.13333333333333</v>
+        <v>32.27586206896551</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06923076923076923</v>
+        <v>0.09913793103448276</v>
       </c>
       <c r="F7" t="n">
-        <v>13.63846153846154</v>
+        <v>23.19827586206897</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02820512820512821</v>
+        <v>0.05603448275862069</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.40625</v>
       </c>
       <c r="J7" t="n">
-        <v>6.111111111111111</v>
+        <v>4.097826086956522</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02358974358974359</v>
+        <v>0.0423602853745541</v>
       </c>
       <c r="L7" t="n">
-        <v>1.613333333333334</v>
+        <v>1.517241379310345</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -796,7 +796,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>HyperSQL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -805,34 +805,34 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="D8" t="n">
-        <v>13.13333333333333</v>
+        <v>32.27586206896551</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1205128205128205</v>
+        <v>0.2327586206896552</v>
       </c>
       <c r="F8" t="n">
-        <v>23.74102564102564</v>
+        <v>54.46551724137932</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.625</v>
       </c>
       <c r="J8" t="n">
-        <v>4.468085106382978</v>
+        <v>2.685185185185185</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02786324786324786</v>
+        <v>0.05410225921521998</v>
       </c>
       <c r="L8" t="n">
-        <v>1.905555555555555</v>
+        <v>2.045977011494253</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -844,48 +844,1254 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>HyperSQL</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MS Access</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="D9" t="n">
+        <v>32.27586206896551</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.03017241379310345</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.060344827586207</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02155172413793104</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.15625</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5.178571428571428</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.01739001189060642</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.149425287356322</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HyperSQL</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MS SQL Server</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="D10" t="n">
+        <v>32.27586206896551</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.03879310344827586</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9.077586206896552</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03017241379310345</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.21875</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5.638888888888888</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.02482164090368609</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.230344827586207</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HyperSQL</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Informix</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="D11" t="n">
+        <v>32.27586206896551</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.02155172413793104</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.043103448275863</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.02155172413793104</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.15625</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7.249999999999999</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.01857907253269917</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.159642401021711</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MySQL</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>Oracle</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C12" t="n">
+        <v>0.2327586206896552</v>
+      </c>
+      <c r="D12" t="n">
+        <v>54.46551724137932</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.08620689655172414</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20.17241379310345</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.06465517241379311</v>
+      </c>
+      <c r="H12" t="n">
+        <v>15</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.222222222222222</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.04458977407847801</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.26525198938992</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MySQL</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.2327586206896552</v>
+      </c>
+      <c r="D13" t="n">
+        <v>54.46551724137932</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1163793103448276</v>
+      </c>
+      <c r="F13" t="n">
+        <v>27.23275862068966</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.07327586206896551</v>
+      </c>
+      <c r="H13" t="n">
+        <v>17</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.3148148148148148</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.705075445816186</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.04618757431629013</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.289608574091333</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MySQL</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SQLite</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2327586206896552</v>
+      </c>
+      <c r="D14" t="n">
+        <v>54.46551724137932</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.05172413793103448</v>
+      </c>
+      <c r="F14" t="n">
+        <v>12.10344827586207</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03017241379310345</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1296296296296297</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.506172839506173</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.01813317479191439</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.089508437270726</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MySQL</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MS SQL Server</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2327586206896552</v>
+      </c>
+      <c r="D15" t="n">
+        <v>54.46551724137932</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.03879310344827586</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9.077586206896552</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03879310344827586</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.296296296296297</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.02976367419738407</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.153448275862069</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>PostgreSQL</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>0.03846153846153846</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7.576923076923076</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.04615384615384616</v>
-      </c>
-      <c r="F9" t="n">
-        <v>9.092307692307694</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.02307692307692308</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="C16" t="n">
+        <v>0.08620689655172414</v>
+      </c>
+      <c r="D16" t="n">
+        <v>20.17241379310345</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.09913793103448276</v>
+      </c>
+      <c r="F16" t="n">
+        <v>23.19827586206897</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.05603448275862069</v>
+      </c>
+      <c r="H16" t="n">
         <v>13</v>
       </c>
-      <c r="K9" t="n">
-        <v>0.02130177514792899</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.384615384615384</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="I16" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6.556521739130435</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.04748810939357907</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.573891625615764</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HyperSQL</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.08620689655172414</v>
+      </c>
+      <c r="D17" t="n">
+        <v>20.17241379310345</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="F17" t="n">
+        <v>32.27586206896551</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05603448275862069</v>
+      </c>
+      <c r="H17" t="n">
+        <v>13</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.7125</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.04414387633769322</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.463054187192118</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.08620689655172414</v>
+      </c>
+      <c r="D18" t="n">
+        <v>20.17241379310345</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1163793103448276</v>
+      </c>
+      <c r="F18" t="n">
+        <v>27.23275862068966</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.437037037037037</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0244500594530321</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.472701149425287</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>IBM DB2</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.08620689655172414</v>
+      </c>
+      <c r="D19" t="n">
+        <v>20.17241379310345</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.04310344827586207</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10.08620689655172</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.03879310344827586</v>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J19" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.03507728894173603</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.739811912225705</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SQLite</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.08620689655172414</v>
+      </c>
+      <c r="D20" t="n">
+        <v>20.17241379310345</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.05172413793103448</v>
+      </c>
+      <c r="F20" t="n">
+        <v>12.10344827586207</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.03017241379310345</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6.766666666666667</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.02571343638525565</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.458885941644562</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MS SQL Server</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.08620689655172414</v>
+      </c>
+      <c r="D21" t="n">
+        <v>20.17241379310345</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.03879310344827586</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9.077586206896552</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03017241379310345</v>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="J21" t="n">
+        <v>9.022222222222222</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0268281807372176</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.478779840848806</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PostgreSQL</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1163793103448276</v>
+      </c>
+      <c r="D22" t="n">
+        <v>27.23275862068966</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.09913793103448276</v>
+      </c>
+      <c r="F22" t="n">
+        <v>23.19827586206897</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04310344827586207</v>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.3703703703703704</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.735909822866345</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.03156584423305589</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.43078093306288</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>HyperSQL</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1163793103448276</v>
+      </c>
+      <c r="D23" t="n">
+        <v>27.23275862068966</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="F23" t="n">
+        <v>32.27586206896551</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.05172413793103448</v>
+      </c>
+      <c r="H23" t="n">
+        <v>12</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.4444444444444445</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.222222222222222</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0356718192627824</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.551724137931034</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>IBM DB2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1163793103448276</v>
+      </c>
+      <c r="D24" t="n">
+        <v>27.23275862068966</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.04310344827586207</v>
+      </c>
+      <c r="F24" t="n">
+        <v>10.08620689655172</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02155172413793104</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.296296296296297</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.01653537455410226</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.174373040752351</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MS SQL Server</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1163793103448276</v>
+      </c>
+      <c r="D25" t="n">
+        <v>27.23275862068966</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.03879310344827586</v>
+      </c>
+      <c r="F25" t="n">
+        <v>9.077586206896552</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02586206896551724</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5.728395061728396</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.02134735434007135</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.235837438423645</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>IBM DB2</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HyperSQL</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.04310344827586207</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10.08620689655172</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="F26" t="n">
+        <v>32.27586206896551</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.04310344827586207</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.03715814506539834</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>IBM DB2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MySQL</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.04310344827586207</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10.08620689655172</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.2327586206896552</v>
+      </c>
+      <c r="F27" t="n">
+        <v>54.46551724137932</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.04310344827586207</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.296296296296297</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.03307074910820453</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MS Access</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MySQL</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.03017241379310345</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7.060344827586207</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.2327586206896552</v>
+      </c>
+      <c r="F28" t="n">
+        <v>54.46551724137932</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03017241379310345</v>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4.296296296296297</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.02314952437574316</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MS Access</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.03017241379310345</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7.060344827586207</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.08620689655172414</v>
+      </c>
+      <c r="F29" t="n">
+        <v>20.17241379310345</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02586206896551724</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9.942857142857141</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.02326099881093936</v>
+      </c>
+      <c r="L29" t="n">
+        <v>6.396551724137929</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SQLite</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PostgreSQL</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.05172413793103448</v>
+      </c>
+      <c r="D30" t="n">
+        <v>12.10344827586207</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.09913793103448276</v>
+      </c>
+      <c r="F30" t="n">
+        <v>23.19827586206897</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03017241379310345</v>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5.884057971014493</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.02504458977407848</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.162068965517241</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SQLite</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>HyperSQL</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.05172413793103448</v>
+      </c>
+      <c r="D31" t="n">
+        <v>12.10344827586207</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="F31" t="n">
+        <v>32.27586206896551</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.02586206896551724</v>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.01872770511296076</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.724137931034483</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SQLite</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.05172413793103448</v>
+      </c>
+      <c r="D32" t="n">
+        <v>12.10344827586207</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.1163793103448276</v>
+      </c>
+      <c r="F32" t="n">
+        <v>27.23275862068966</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03017241379310345</v>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5.012345679012346</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.02415279429250892</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.120689655172414</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SQLite</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MS SQL Server</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.05172413793103448</v>
+      </c>
+      <c r="D33" t="n">
+        <v>12.10344827586207</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.03879310344827586</v>
+      </c>
+      <c r="F33" t="n">
+        <v>9.077586206896552</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.02155172413793104</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="J33" t="n">
+        <v>10.74074074074074</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.01954518430439953</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.647783251231527</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MS SQL Server</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>IBM DB2</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.03879310344827586</v>
+      </c>
+      <c r="D34" t="n">
+        <v>9.077586206896552</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.04310344827586207</v>
+      </c>
+      <c r="F34" t="n">
+        <v>10.08620689655172</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02155172413793104</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="J34" t="n">
+        <v>12.88888888888889</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.01987960760998811</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2.15301724137931</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
